--- a/FINAL450 (Autosaved).xlsx
+++ b/FINAL450 (Autosaved).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1764" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="614">
   <si>
     <t xml:space="preserve">Problem: </t>
   </si>
@@ -1432,9 +1432,6 @@
     <t>Lecture 5,6,7 CodeHelp</t>
   </si>
   <si>
-    <t>Extra</t>
-  </si>
-  <si>
     <t>CodeStudio</t>
   </si>
   <si>
@@ -1528,9 +1525,6 @@
     <t>Use of a variable dir to print the wave of a matrix, just like Spiral Traversal</t>
   </si>
   <si>
-    <t>Recursion Babbar</t>
-  </si>
-  <si>
     <t>Fibonacci Number</t>
   </si>
   <si>
@@ -1576,9 +1570,6 @@
     <t>Create a Mapping array. Use concept of pick and not pick and generate strings</t>
   </si>
   <si>
-    <t>Recursion Backtracking Babbar</t>
-  </si>
-  <si>
     <t>Here many rounds happen, at each pass, the greatest element comes at end of array. It is stable algorithm</t>
   </si>
   <si>
@@ -1588,9 +1579,6 @@
     <t>Take every index element starting from 1st index and store it in a variable and take a hole as index of that element. Compare with sorted part i.e left part and fix the element to its correct position</t>
   </si>
   <si>
-    <t>Recursion Babbar/Extra</t>
-  </si>
-  <si>
     <t>Merge Sort Using Recursion</t>
   </si>
   <si>
@@ -1615,18 +1603,9 @@
     <t>See Circular Singly, Doubly Insertion, Deletion</t>
   </si>
   <si>
-    <t>1) Iteratively. Links reverse kar do. Point the next of each node to prev and update prev and curr 2) Can be done using stack as well</t>
-  </si>
-  <si>
-    <t>1) Brute Force. Count the total number of nodes and keep count 2) Use Slow and fast pointer. While fast!=null, slow = slow.next and fast = fast.next.next</t>
-  </si>
-  <si>
     <t>Just swap next and prev pointers of node and do node = node.prev</t>
   </si>
   <si>
-    <t>Store head in temp. Traverse the linked list and check if at any moment, head == temp, if true return true</t>
-  </si>
-  <si>
     <t>Page No.</t>
   </si>
   <si>
@@ -1862,6 +1841,21 @@
   </si>
   <si>
     <t>Rat can go Up, Down, Left, Right. Check for each dir if it is safe to go and mark visited array to 1. Then backtrack and mark unvisited</t>
+  </si>
+  <si>
+    <t>1) Iteratively. Links reverse kar do. Point the next of each node to prev and update prev and curr || 2) Can be done using stack as well</t>
+  </si>
+  <si>
+    <t>1) Brute Force. Count the total number of nodes and keep count || 2) Use Slow and fast pointer. While fast!=null, slow = slow.next and fast = fast.next.next</t>
+  </si>
+  <si>
+    <t>1) Store head in temp. Traverse the linked list and check if at any moment, head == temp, if true return true</t>
+  </si>
+  <si>
+    <t>Easy to implement, see notes</t>
+  </si>
+  <si>
+    <t>Recursion Babbar Extra</t>
   </si>
 </sst>
 </file>
@@ -2438,7 +2432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2450,7 +2444,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D323" sqref="D323"/>
+      <selection pane="bottomLeft" activeCell="D305" sqref="D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2479,17 +2473,17 @@
         <v>458</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="9" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2540,16 +2534,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G5" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2566,16 +2560,16 @@
         <v>2</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F6" s="28" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2592,7 +2586,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F7" s="28" t="s">
         <v>3</v>
@@ -2601,7 +2595,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2618,16 +2612,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2644,16 +2638,16 @@
         <v>6</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2670,16 +2664,16 @@
         <v>25</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2696,16 +2690,16 @@
         <v>34</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G11" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2770,16 +2764,16 @@
         <v>23</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="G15" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2796,7 +2790,7 @@
         <v>32</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F16" s="28" t="s">
         <v>7</v>
@@ -2805,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2870,16 +2864,16 @@
         <v>53</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="G20" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -2912,16 +2906,16 @@
         <v>27</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3082,16 +3076,16 @@
         <v>28</v>
       </c>
       <c r="E32" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3230,22 +3224,22 @@
         <v>465</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D41" s="23">
         <v>17</v>
       </c>
       <c r="E41" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F41" s="28" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="G41" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3256,22 +3250,22 @@
         <v>466</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D42" s="23">
         <v>19</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3279,25 +3273,25 @@
         <v>464</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D43" s="24">
         <v>20</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3308,22 +3302,22 @@
         <v>466</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D44" s="24">
         <v>21</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3334,22 +3328,22 @@
         <v>463</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D45" s="24">
         <v>34</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G45" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3360,22 +3354,22 @@
         <v>465</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D46" s="24">
         <v>36</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G46" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3386,22 +3380,22 @@
         <v>466</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D47" s="24">
         <v>37</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G47" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3412,27 +3406,27 @@
         <v>465</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D48" s="24">
         <v>38</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F48" s="28" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="G48" s="18" t="s">
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="14"/>
@@ -3485,7 +3479,7 @@
         <v>7</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F53" s="28" t="s">
         <v>30</v>
@@ -3494,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3511,16 +3505,16 @@
         <v>8</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3537,16 +3531,16 @@
         <v>10</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3563,16 +3557,16 @@
         <v>11</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F56" s="28" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3585,7 +3579,7 @@
         <v>12</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F57" s="28" t="s">
         <v>31</v>
@@ -3594,7 +3588,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3641,7 +3635,7 @@
         <v>45</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F60" s="28" t="s">
         <v>34</v>
@@ -3650,7 +3644,7 @@
         <v>1</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3688,21 +3682,21 @@
         <v>464</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="C63" s="14" t="s">
         <v>472</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="G63" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -3756,7 +3750,7 @@
         <v>13</v>
       </c>
       <c r="E68" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F68" s="28" t="s">
         <v>38</v>
@@ -3765,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3782,16 +3776,16 @@
         <v>13</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3808,16 +3802,16 @@
         <v>13</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3834,7 +3828,7 @@
         <v>13</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F71" s="28" t="s">
         <v>39</v>
@@ -3860,16 +3854,16 @@
         <v>14</v>
       </c>
       <c r="E72" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3946,7 +3940,7 @@
         <v>55</v>
       </c>
       <c r="E77" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F77" s="28" t="s">
         <v>44</v>
@@ -3955,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -3972,7 +3966,7 @@
         <v>57</v>
       </c>
       <c r="E78" s="23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F78" s="28" t="s">
         <v>45</v>
@@ -3981,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="21" x14ac:dyDescent="0.35">
@@ -4472,22 +4466,22 @@
         <v>463</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D111" s="23">
         <v>39</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G111" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -4498,22 +4492,22 @@
         <v>465</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D112" s="23">
         <v>40</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G112" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="21" x14ac:dyDescent="0.35">
@@ -4523,23 +4517,23 @@
       <c r="B113" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>472</v>
+      <c r="C113" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="D113" s="24">
         <v>41</v>
       </c>
       <c r="E113" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G113" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="N113" s="4"/>
     </row>
@@ -4551,22 +4545,22 @@
         <v>466</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D114" s="23">
         <v>42</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G114" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="K114" s="3"/>
       <c r="S114" s="4"/>
@@ -4578,23 +4572,23 @@
       <c r="B115" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C115" s="13" t="s">
-        <v>472</v>
+      <c r="C115" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="D115" s="24">
         <v>43</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G115" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="116" spans="1:19" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -4604,23 +4598,23 @@
       <c r="B116" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C116" s="13" t="s">
-        <v>472</v>
+      <c r="C116" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="D116" s="24">
         <v>44</v>
       </c>
       <c r="E116" s="24" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F116" s="28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G116" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:19" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.35">
@@ -4628,13 +4622,13 @@
       <c r="B117" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="C117" s="13" t="s">
-        <v>472</v>
+      <c r="C117" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="D117" s="24"/>
       <c r="E117" s="24"/>
       <c r="F117" s="31" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G117" s="20" t="s">
         <v>1</v>
@@ -4648,19 +4642,19 @@
       <c r="B118" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="C118" s="13" t="s">
-        <v>472</v>
+      <c r="C118" s="12" t="s">
+        <v>535</v>
       </c>
       <c r="D118" s="24"/>
       <c r="E118" s="24"/>
       <c r="F118" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="G118" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="G118" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="K118" s="3"/>
     </row>
@@ -4715,7 +4709,7 @@
         <v>15</v>
       </c>
       <c r="E123" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F123" s="28" t="s">
         <v>79</v>
@@ -4724,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="21" x14ac:dyDescent="0.35">
@@ -4741,7 +4735,7 @@
         <v>15</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F124" s="28" t="s">
         <v>80</v>
@@ -4750,7 +4744,7 @@
         <v>1</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="21" x14ac:dyDescent="0.35">
@@ -4767,7 +4761,7 @@
         <v>16</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F125" s="28" t="s">
         <v>81</v>
@@ -4776,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="M125" s="2" t="s">
         <v>470</v>
@@ -4796,7 +4790,7 @@
         <v>16</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F126" s="28" t="s">
         <v>82</v>
@@ -4805,7 +4799,7 @@
         <v>1</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="21" x14ac:dyDescent="0.35">
@@ -5076,13 +5070,13 @@
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
       <c r="F144" s="29" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5103,7 +5097,7 @@
     <row r="146" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A146" s="8"/>
       <c r="B146" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>78</v>
@@ -5117,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5134,24 +5128,24 @@
         <v>29</v>
       </c>
       <c r="E147" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F147" s="28" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>486</v>
       </c>
       <c r="C148" s="12" t="s">
         <v>78</v>
@@ -5229,15 +5223,15 @@
         <v>1</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A153" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B153" s="8" t="s">
         <v>485</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>486</v>
       </c>
       <c r="C153" s="12" t="s">
         <v>78</v>
@@ -5334,18 +5328,18 @@
         <v>466</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
       <c r="F159" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H159" s="1" t="s">
         <v>476</v>
-      </c>
-      <c r="G159" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H159" s="1" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5356,18 +5350,18 @@
         <v>465</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
       <c r="F160" s="29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G160" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5378,18 +5372,18 @@
         <v>465</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
       <c r="F161" s="29" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G161" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5400,18 +5394,18 @@
         <v>465</v>
       </c>
       <c r="C162" s="12" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
       <c r="F162" s="29" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G162" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5422,40 +5416,40 @@
         <v>465</v>
       </c>
       <c r="C163" s="12" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
       <c r="F163" s="29" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G163" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A164" s="8"/>
       <c r="B164" s="8"/>
       <c r="C164" s="12" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="D164" s="23">
         <v>73</v>
       </c>
       <c r="E164" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G164" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5504,16 +5498,20 @@
       <c r="C169" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
-      <c r="F169" s="29" t="s">
+      <c r="D169" s="8">
+        <v>74</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F169" s="28" t="s">
         <v>114</v>
       </c>
       <c r="G169" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5526,9 +5524,13 @@
       <c r="C170" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="29" t="s">
+      <c r="D170" s="8">
+        <v>77</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="F170" s="28" t="s">
         <v>115</v>
       </c>
       <c r="G170" s="19" t="s">
@@ -5725,16 +5727,20 @@
       <c r="C183" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="29" t="s">
+      <c r="D183" s="8">
+        <v>75</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F183" s="28" t="s">
         <v>128</v>
       </c>
       <c r="G183" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H183" s="1" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5747,16 +5753,20 @@
       <c r="C184" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="29" t="s">
+      <c r="D184" s="8">
+        <v>79</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>129</v>
       </c>
       <c r="G184" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H184" s="1" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -5814,16 +5824,20 @@
       <c r="C188" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="29" t="s">
+      <c r="D188" s="8">
+        <v>76</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F188" s="28" t="s">
         <v>133</v>
       </c>
       <c r="G188" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -6074,18 +6088,22 @@
         <v>465</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="29" t="s">
-        <v>527</v>
+        <v>535</v>
+      </c>
+      <c r="D205" s="8">
+        <v>61</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F205" s="28" t="s">
+        <v>523</v>
       </c>
       <c r="G205" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -6096,15 +6114,22 @@
         <v>465</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="29" t="s">
-        <v>529</v>
+        <v>535</v>
+      </c>
+      <c r="D206" s="8">
+        <v>63</v>
+      </c>
+      <c r="E206" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F206" s="28" t="s">
+        <v>525</v>
       </c>
       <c r="G206" s="19" t="s">
         <v>1</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -6115,15 +6140,22 @@
         <v>465</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="29" t="s">
-        <v>530</v>
+        <v>535</v>
+      </c>
+      <c r="D207" s="8">
+        <v>64</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F207" s="28" t="s">
+        <v>526</v>
       </c>
       <c r="G207" s="19" t="s">
         <v>1</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -6134,33 +6166,51 @@
         <v>465</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="29" t="s">
+        <v>535</v>
+      </c>
+      <c r="D208" s="8">
+        <v>64</v>
+      </c>
+      <c r="E208" s="8" t="s">
         <v>531</v>
       </c>
+      <c r="F208" s="28" t="s">
+        <v>527</v>
+      </c>
       <c r="G208" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A209" s="8"/>
-      <c r="B209" s="8"/>
+      <c r="H208" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A209" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="B209" s="8" t="s">
+        <v>465</v>
+      </c>
       <c r="C209" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="27" t="s">
-        <v>532</v>
+        <v>535</v>
+      </c>
+      <c r="D209" s="8">
+        <v>65</v>
+      </c>
+      <c r="E209" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F209" s="28" t="s">
+        <v>528</v>
       </c>
       <c r="G209" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="H209" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A210" s="8"/>
       <c r="B210" s="8"/>
       <c r="C210" s="14"/>
@@ -6168,7 +6218,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="27"/>
     </row>
-    <row r="211" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A211" s="8"/>
       <c r="B211" s="8"/>
       <c r="C211" s="14"/>
@@ -6176,7 +6226,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="27"/>
     </row>
-    <row r="212" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A212" s="8"/>
       <c r="B212" s="8"/>
       <c r="C212" s="14"/>
@@ -6184,7 +6234,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="27"/>
     </row>
-    <row r="213" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="14"/>
@@ -6193,7 +6243,7 @@
       <c r="F213" s="27"/>
       <c r="G213" s="19"/>
     </row>
-    <row r="214" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A214" s="8"/>
       <c r="B214" s="8"/>
       <c r="C214" s="12" t="s">
@@ -6208,7 +6258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A215" s="8"/>
       <c r="B215" s="8"/>
       <c r="C215" s="12" t="s">
@@ -6223,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A216" s="8"/>
       <c r="B216" s="8"/>
       <c r="C216" s="12" t="s">
@@ -6238,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A217" s="8"/>
       <c r="B217" s="8"/>
       <c r="C217" s="12" t="s">
@@ -6253,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A218" s="8"/>
       <c r="B218" s="8"/>
       <c r="C218" s="12" t="s">
@@ -6268,7 +6318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A219" s="8"/>
       <c r="B219" s="8"/>
       <c r="C219" s="12" t="s">
@@ -6283,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A220" s="8"/>
       <c r="B220" s="8"/>
       <c r="C220" s="12" t="s">
@@ -6298,7 +6348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A221" s="8"/>
       <c r="B221" s="8"/>
       <c r="C221" s="12" t="s">
@@ -6313,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A222" s="8"/>
       <c r="B222" s="8"/>
       <c r="C222" s="12" t="s">
@@ -6328,7 +6378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A223" s="8"/>
       <c r="B223" s="8"/>
       <c r="C223" s="12" t="s">
@@ -6343,7 +6393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="21" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A224" s="8"/>
       <c r="B224" s="8"/>
       <c r="C224" s="12" t="s">
@@ -7695,7 +7745,7 @@
         <v>58</v>
       </c>
       <c r="E318" s="23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F318" s="28" t="s">
         <v>245</v>
@@ -7704,7 +7754,7 @@
         <v>1</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -7901,7 +7951,7 @@
         <v>57</v>
       </c>
       <c r="E331" s="23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F331" s="28" t="s">
         <v>258</v>
@@ -7993,22 +8043,22 @@
         <v>466</v>
       </c>
       <c r="C337" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D337" s="23">
         <v>46</v>
       </c>
       <c r="E337" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F337" s="28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G337" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8016,25 +8066,25 @@
         <v>464</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C338" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D338" s="23">
         <v>46</v>
       </c>
       <c r="E338" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F338" s="28" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G338" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8045,22 +8095,22 @@
         <v>465</v>
       </c>
       <c r="C339" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D339" s="23">
         <v>47</v>
       </c>
       <c r="E339" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F339" s="28" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G339" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8071,22 +8121,22 @@
         <v>465</v>
       </c>
       <c r="C340" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D340" s="23">
         <v>47</v>
       </c>
       <c r="E340" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F340" s="28" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G340" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8097,22 +8147,22 @@
         <v>463</v>
       </c>
       <c r="C341" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D341" s="23">
         <v>48</v>
       </c>
       <c r="E341" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F341" s="28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G341" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8123,22 +8173,22 @@
         <v>466</v>
       </c>
       <c r="C342" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D342" s="23">
         <v>49</v>
       </c>
       <c r="E342" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F342" s="28" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G342" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8149,22 +8199,22 @@
         <v>465</v>
       </c>
       <c r="C343" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D343" s="23">
         <v>49</v>
       </c>
       <c r="E343" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="F343" s="28" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G343" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8175,22 +8225,22 @@
         <v>466</v>
       </c>
       <c r="C344" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D344" s="23">
         <v>54</v>
       </c>
       <c r="E344" s="23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F344" s="28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G344" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="345" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8201,22 +8251,22 @@
         <v>465</v>
       </c>
       <c r="C345" s="12" t="s">
-        <v>504</v>
+        <v>613</v>
       </c>
       <c r="D345" s="23">
         <v>53</v>
       </c>
       <c r="E345" s="23" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="F345" s="28" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G345" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -8227,22 +8277,22 @@
         <v>463</v>
       </c>
       <c r="C346" s="12" t="s">
-        <v>520</v>
+        <v>613</v>
       </c>
       <c r="D346" s="23">
         <v>56</v>
       </c>
       <c r="E346" s="23" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="F346" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G346" s="19" t="s">
         <v>1</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="21" x14ac:dyDescent="0.35">
@@ -11116,12 +11166,12 @@
       <c r="A548" s="8"/>
       <c r="B548" s="8"/>
       <c r="C548" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D548" s="16"/>
       <c r="E548" s="16"/>
       <c r="F548" s="27" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G548" s="19" t="s">
         <v>1</v>
@@ -11131,12 +11181,12 @@
       <c r="A549" s="8"/>
       <c r="B549" s="8"/>
       <c r="C549" s="12" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D549" s="16"/>
       <c r="E549" s="16"/>
       <c r="F549" s="27" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="G549" s="19" t="s">
         <v>1</v>
@@ -11144,28 +11194,28 @@
     </row>
     <row r="550" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A550" s="8" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="B550" s="8" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C550" s="14" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D550" s="16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E550" s="16" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="F550" s="27" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G550" s="10" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="H550" s="21" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
